--- a/Lista_de_Emails_MG.xlsx
+++ b/Lista_de_Emails_MG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31019046</v>
+        <v>31184799</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EE GOVERNADOR BIAS FORTES</t>
+          <t>EE DO HAVAI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>escola.19046@educacao.mg.gov.br</t>
+          <t>escola.184799@educacao.mg.gov.br</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -497,16 +497,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31041556</v>
+        <v>31185396</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EE ANTONIO ALTICIANO</t>
+          <t>EE LIDIO ALMEIDA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>escola.41556@educacao.mg.gov.br</t>
+          <t>escola.185396@educacao.mg.gov.br</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -517,16 +517,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31096512</v>
+        <v>31146986</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EE SAO JOSE</t>
+          <t>EE MANOEL DA SILVA GUSMAO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>escola.96512@educacao.mg.gov.br</t>
+          <t>escola.146986@educacao.mg.gov.br</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -537,19 +537,3639 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>31082571</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EE TENENTE FELISMINO HENRIQUES DE SOUZA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>escola.82571@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31239372</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EE LIMA DUARTE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>escola.239372@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31015334</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EE CONEGO LUIZ GIAROLA CARLOS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>escola.15334@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31015989</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EE GALDINO ANANIAS DE SANTANA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>escola.15989@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31097551</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EE DOUTOR PEDRO PAULO NETO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>escola.97551@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31097764</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EE FAZENDA PARAISO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>escola.97764@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31019046</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EE GOVERNADOR BIAS FORTES</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>escola.19046@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31019135</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EE DONA NHANHA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>escola.19135@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31020699</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EE EUCLIDES PINTO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>escola.20699@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31020613</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EE JOSE FRANCISCO DE PAIVA CAMPOS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>escola.20613@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31294667</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EE CONEGO JOAO SEVERO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>escola.294667@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31172936</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR SOUZA NILO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>escola.172936@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31193356</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EE GUSTAVO AUGUSTO DA SILVA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>escola.193356@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31194395</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EE DR JOAO NOGUEIRA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>escola.194395@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31190900</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EE PROFESSORA CELINA MACHADO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>escola.190900@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31190993</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EE ALMIRANTE TOYODA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>escola.190993@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31191159</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EE HAYDEE MARIA IMACULADA SCHITTINI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>escola.191159@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31191001</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EE LAURA XAVIER SANTANA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>escola.191001@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31191124</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EE MAURILIO ALBANESE NOVAES</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>escola.191124@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31191531</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EE PROFESSORA ANA LETRO STAACKS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>escola.191531@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31140384</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EE NOSSA SENHORA DO CARMO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>escola.140384@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31140848</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EE IRMA RAIMUNDA MARQUES</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>escola.140848@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31254355</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EE JULIANA CATARINA DA SILVEIRA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>escola.254355@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31023825</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EE PROFESSORA ISABEL MOTTA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>escola.23825@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31023981</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EE FELICIO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>escola.23981@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31024996</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EE MESTRA ROSA MADUREIRA FAGUNDES</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>escola.24996@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31025003</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EE MESTRA VIRGINIA REIS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>escola.25003@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31032701</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EE PRESIDENTE TANCREDO NEVES</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>escola.32701@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31033014</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EE ARMANDO NOGUEIRA SOARES</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>escola.33014@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31033871</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EE DE ITAUNA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>escola.33871@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31034185</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EE COMENDADOR ZICO TOBIAS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>escola.34185@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31041556</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EE ANTONIO ALTICIANO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>escola.41556@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31043885</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EE LEVINDO DIAS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>escola.43885@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31042081</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EE DE CONSELHEIRO PENA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>escola.42081@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31042200</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>EE MARIA GARCIA PINTO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>escola.42200@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31042145</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EE MARIA GUILHERMINA PENA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>escola.42145@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31043559</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EE DE SAO VITOR</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>escola.43559@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31205371</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>EE DO BAIRRO JARDIM DO IPE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>escola.205371@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31043141</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EE MANOEL BYRRO</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>escola.43141@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31043184</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR PAULO FREIRE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>escola.43184@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31043681</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>EE TENENTE JOSE COELHO DA ROCHA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>escola.43681@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31330680</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>EE PROFESSORA MARGARET BARROSO PINTO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>escola.330680@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31045331</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>EE MAJOR LERMINO PIMENTA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>escola.45331@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31196436</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>EE BELCHIOR DE FARIA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>escola.196436@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31196592</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>EE PROFESSORA MARIA DE BARROS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>escola.196592@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31231843</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>EE DO NUCLEO HABITACIONAL I</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>escola.231843@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31080624</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>EE PROFESSORA NHAGUI AZEVEDO</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>escola.80624@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31082147</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>EE SANTOS DUMONT</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>escola.82147@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31369810</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>EE DE ENSINO FUNDAMENTAL ANOS FINAIS E ENSINO MEDIO</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>escola.369810@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31062961</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>EE DE MONTALVANIA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>escola.62961@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31338761</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>EE ALINE DIAS NEVES</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>escola.338761@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31068292</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>EE ANTONIO MACEDO</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>escola.68292@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31068420</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>EE ANTONIO CARLOS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>escola.68420@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31068683</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>EE DUARTE DE ABREU</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>escola.68683@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31070149</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>EE OSWALDO CRUZ</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>escola.70149@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31096512</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>EE SAO JOSE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>escola.96512@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31075094</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>EE SAO VICENTE DE PAULO</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>escola.75094@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31075787</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>EE DE RIBEIRAO DE SAO DOMINGOS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>escola.75787@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31364932</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CENTRO INTERESCOLAR DE CULTURA ARTE LINGUAGENS E TECNOLOGIAS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>escola.364932@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31001317</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>EE CORACAO EUCARISTICO</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>escola.1317@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31001473</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>EE CORONEL VICENTE TORRES JUNIOR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>escola.1473@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31000493</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>EE DEPUTADO ILACIR PEREIRA LIMA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>escola.493@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31322563</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>EE JOVEM PROTAGONISTA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>escola.322563@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31000175</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>EE MARIA DE LOURDES DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>escola.175@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31342440</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>EE ZILDA ARNS NEUMANN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>escola.342440@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31008117</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>EE MELO VIANA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>escola.8117@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31008486</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>EE JOSE PEREIRA CANCADO</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>escola.8486@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31222470</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>EE JUQUINHA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>escola.222470@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31001848</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>EE DOUTOR ANTONIO AUGUSTO SOARES CANEDO</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>escola.1848@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31001767</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>EE DOUTOR JOSE DO PATROCINIO DA SILVA PONTES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>escola.1767@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31000051</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>EE GUIA LOPES</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>escola.51@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>31001376</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>EE LUCIO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>escola.1376@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>31000558</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>EE MARIO CASASSANTA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>escola.558@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>31001571</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>EE PADRE EUSTAQUIO</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>escola.1571@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>31002151</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>EE PADRE JOAO BOSCO PENIDO BURNIER</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>escola.2151@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31321061</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>COLEGIO TIRADENTES PMMG</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>escola.321061@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>31008028</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>EE DO BAIRRO SAO CAETANO</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>escola.8028@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>31007935</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>EE TITO LIVIO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>escola.7935@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>31008681</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>EE PRESIDENTE TANCREDO NEVES</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>escola.8681@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>31009181</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>EE JUSCELINO KUBITSCHEK DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>escola.9181@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>31009253</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>EE JOAQUIM JOSE PEREIRA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>escola.9253@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>31009229</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>EE RACHEL IANCU STEURMAN</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>escola.9229@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>31034410</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>EE MARIA RITA DUARTE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>escola.34410@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>31009202</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR ERNESTO CARNEIRO SANTIAGO</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>escola.9202@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>31307700</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>COLEGIO TIRADENTES PMMG MINAS CAIXA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>escola.307700@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>31002259</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>EE AFRANIO DE MELO FRANCO</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>escola.2259@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>31001457</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>EE MADRE CARMELITA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>escola.1457@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>31002241</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>EE PASCHOAL COMANDUCCI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>escola.2241@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>31317357</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR AGNELO CORREIA VIANA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>escola.317357@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>31246425</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>EE PROFESSORA ADIR ANDRADE ALBANO</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>escola.246425@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>31002330</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>EE SIRIA MARQUES DA SILVA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>escola.2330@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>31010081</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>EE JOAO DE DEUS GOMES</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>escola.10081@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>31212679</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>EE MARIA DA GLORIA ASSUNCAO</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>escola.212679@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>31231711</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>EE MARIA DA PIEDADE SOUZA ROCHA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>escola.231711@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>31010111</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>EE VEREADOR JOSE ROBERTO PEREIRA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>escola.10111@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>31010740</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>EE FRANCISCO TIBURCIO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>escola.10740@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>31010821</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>EE GERVASIO LARA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>escola.10821@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>31079499</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>EE JOAO OSORIO DE QUEIROZ</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>escola.79499@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>31079642</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EE CIRILO PEREIRA DA FONSECA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>escola.79642@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>31239232</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>EE SAO SEBASTIAO</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>escola.239232@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>31351067</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>EE DE ENSINO FUNDAMENTAL E MEDIO</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>escola.351067@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>31103187</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>EE TRAJANO PROCOPIO DE ALVARENGA SILVA MONTEIRO</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>escola.103187@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>31103527</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>EE DOUTOR GERALDO PARREIRAS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>escola.103527@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>31103462</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>EE JOAO XXIII</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>escola.103462@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>31103900</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>EE CORONEL JOSE GOMES DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>escola.103900@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>31103969</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>EE CRISTIANO MACHADO</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>escola.103969@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>31103993</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>EE VICENTE DE PAULA FRAGA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>escola.103993@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>31106488</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>EE DE OURO PRETO</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>escola.106488@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>31311898</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>EE CORONEL EGIDIO BENICIO DE ABREU</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>escola.311898@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>31034908</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>EE GOVERNADOR VALADARES</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>escola.34908@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>31108839</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>EE AFFONSO ROQUETTE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>escola.108839@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>31115207</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR JOAQUIM RODARTE</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>escola.115207@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>31115428</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>EE DEUS UNIVERSO E VIRTUDE</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>escola.115428@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>31118796</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>EE DOUTOR PAULO BORGES</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>escola.118796@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>31118958</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>EE MARCOLINO DE BARROS</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>escola.118958@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>31118991</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR MODESTO</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>escola.118991@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>31199184</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>EE ODILON BEHRENS</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>escola.199184@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>31080501</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>EE BOM JESUS DA VEREDA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>escola.80501@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>31123951</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>EE JOAO DE SOUZA GONCALVES</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>escola.123951@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>31128252</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>EE ANTONIO CARLOS</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>escola.128252@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>31128881</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>EE CORONEL ANTONINHO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>escola.128881@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>31129071</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR RAYMUNDO MARTINIANO FERREIRA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>escola.129071@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>31054682</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>EE ANTONIO FELIPE DE SALLES</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>escola.54682@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>31055107</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>EE EDUARDO AMARAL</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>escola.55107@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>31172766</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>EE PREFEITO CELSO VIEIRA VILELA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>escola.172766@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>31124460</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>EE CRISTIANO MACHADO</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>escola.124460@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>31362280</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>COLEGIO TIRADENTES PMMG</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>escola.362280@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>31134911</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>EE AMELIA PASSOS</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>escola.134911@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>31134546</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EE BRIGHENTI CESARE</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>escola.134546@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>31240800</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>EE ARY PIMENTA BUGELLI</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>escola.240800@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>31140554</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>EE MESTRE CANDINHO</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>escola.140554@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>31141593</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>EE DOUTOR AFONSO VIANA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>escola.141593@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>31141852</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR JOAO FERNANDINO JUNIOR</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>escola.141852@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>31141909</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>EE SANTOS AZEREDO</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>escola.141909@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>31342572</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>EE VENCESLAU BRAS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>escola.342572@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
         <v>31145947</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>EE DE AGUA QUENTE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>escola.145947@educacao.mg.gov.br</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>31369870</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>EE DE ENSINO FUNDAMENTAL</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>escola.369870@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>31147583</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>EE DE LAMBARI</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>escola.147583@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>31147354</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>EE DE SETUBAL</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>escola.147354@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>31180785</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>EE JOSE ALVES DE MAGALHAES</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>escola.180785@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>31182036</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>EE GOVERNADOR VALADARES</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>escola.182036@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>31330671</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>EE COMENDADOR GOMES</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>escola.330671@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>31310883</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>EE DR LINDOLFO BERNARDES</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>escola.310883@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>31159182</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>EE NOSSA SENHORA DE LOURDES</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>escola.159182@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>31159484</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>EE BARAO DA RIFAINA</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>escola.159484@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>31159867</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>EE BRASIL</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>escola.159867@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>31159981</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>EE DOM EDUARDO</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>escola.159981@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>31166634</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>EE DONA ELEONORA PIERUCCETTI</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>escola.166634@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>31319163</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>EE CORONEL PEDRO NERY</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>escola.319163@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>31338893</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>EE DE ENSINO FUNDAMENTAL E MEDIO</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>escola.338893@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>31167339</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR JOSE IGNACIO DE SOUSA</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>escola.167339@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>31167614</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>EE SEGISMUNDO PEREIRA</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>escola.167614@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>31246204</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>EE ANALIA CARNEIRO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>escola.246204@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>31108430</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>EE JOSE GOMES PIMENTEL</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>escola.108430@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>31108375</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>EE DOM BOSCO</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>escola.108375@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>31322601</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>EE DARCI RIBEIRO</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>escola.322601@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>31171361</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>EE MARIA UMBELINA DE ANDRADE GOMES</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>escola.171361@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>31171786</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>EE PROFESSOR WANDERLEY FERREIRA DE REZENDE</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>escola.171786@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>31173061</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>EE IRACEMA RODRIGUES</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>escola.173061@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>31173983</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>EE PADRE JOSE RIBEIRO</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>escola.173983@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>31174084</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>EE MINISTRO LUCIO DE MENDONCA</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>escola.174084@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>31174688</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>EE DEPUTADO TEODOSIO BANDEIRA</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>escola.174688@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>31175048</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>EE IRMAO MARIO ESDRAS</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>escola.175048@educacao.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>31239364</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ESCOLA MUNICIPAL SAO JOAO BATISTA</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>emsaojoaobatista@yahoo.com.br</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>31051951</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>EM SERAFIM LOPES GODINHO</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>31071242</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>EM ALMERINDA DE OLIVEIRA TAVARES</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>31071803</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>EM CAMILO GUEDES</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>camiloguedes@pjf.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>31352110</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>EM CORONEL EMILIO ESTEVES DOS REIS</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>31071498</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>EM FERNAO DIAS PAES</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>emfdias@ojf.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>31071692</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>EM MARIA ALADIA SANT ANA</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>jea@pjf.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>31071315</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>EM PEDRO NAGIB NASSER</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>pedronagib@mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>31071455</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>EM SANTANA ITATIAIA</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>santanaitatiaia@pjf.mg.gov.br</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>31002801</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ESCOLA MUNICIPAL HELENA ANTIPOFF</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>31003000</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ESCOLA MUNICIPAL JONAS BARCELLOS CORREA</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>31362247</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ESCOLA MUNICIPAL JARDIM LEBLON</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>31111660</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ESCOLA MUNICIPAL ISRAEL PINHEIRO</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>caicjp@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>31057151</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ESCOLA MUNICIPAL AMBROSINA MARIA DE JESUS</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>31269981</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>EM SAO JOSE</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>31165701</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>EM FREDERICO PEIRO</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>31165441</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>EM MONTEIRO LOBATO</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>31245909</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>E M PROF DOMINGOS PIMENTEL DE ULHOA</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>31325473</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>E M PROFESSORA ORLANDA NEVES STRACK</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
         <is>
           <t>Cadastro-de-Escolas-Todas-as-Redes-de-Ensino-19-de-Marco-de-2025.xlsx</t>
         </is>
